--- a/Check.xlsx
+++ b/Check.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Android studio\mobile hospice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992D138C-3042-41EE-A71C-7DF319AD2D7B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CDB74C-E130-42E2-B218-596D9083DE94}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="62">
   <si>
     <t>Группа проверок/модуль</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>ответ на входящий звонок;</t>
+  </si>
+  <si>
+    <t>заряд батареи ниже 26%</t>
   </si>
 </sst>
 </file>
@@ -874,7 +877,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -896,6 +898,39 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -918,7 +953,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -946,42 +981,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1203,16 +1206,16 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection sqref="A1:D51"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="67.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="69" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="69" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1222,15 +1225,15 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1244,7 +1247,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="45"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
@@ -1252,7 +1255,7 @@
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
@@ -1260,7 +1263,7 @@
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="68" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="30" t="s">
@@ -1274,7 +1277,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="31" t="s">
         <v>35</v>
       </c>
@@ -1286,7 +1289,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="31" t="s">
         <v>39</v>
       </c>
@@ -1298,7 +1301,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
@@ -1310,7 +1313,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="10" t="s">
         <v>33</v>
       </c>
@@ -1322,7 +1325,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="69" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -1336,7 +1339,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="13" t="s">
         <v>41</v>
       </c>
@@ -1348,7 +1351,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
@@ -1360,8 +1363,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="47" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="57" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="49" t="s">
@@ -1372,14 +1375,14 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="62"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="54"/>
-      <c r="B15" s="47" t="s">
+      <c r="A15" s="64"/>
+      <c r="B15" s="57" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="49" t="s">
@@ -1390,13 +1393,13 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="62"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="50"/>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
@@ -1408,8 +1411,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
-      <c r="B18" s="39" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="38" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="24" t="s">
@@ -1420,10 +1423,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="9" t="s">
@@ -1434,7 +1437,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
+      <c r="A20" s="64"/>
       <c r="B20" s="31" t="s">
         <v>45</v>
       </c>
@@ -1446,7 +1449,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
+      <c r="A21" s="64"/>
       <c r="B21" s="15" t="s">
         <v>48</v>
       </c>
@@ -1458,8 +1461,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="64"/>
+      <c r="B22" s="35" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1470,7 +1473,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
+      <c r="A23" s="64"/>
       <c r="B23" s="15" t="s">
         <v>49</v>
       </c>
@@ -1482,8 +1485,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="35" t="s">
+      <c r="A24" s="64"/>
+      <c r="B24" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -1494,7 +1497,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
+      <c r="A25" s="64"/>
       <c r="B25" s="6" t="s">
         <v>16</v>
       </c>
@@ -1506,7 +1509,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="6" t="s">
         <v>17</v>
       </c>
@@ -1518,7 +1521,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
+      <c r="A27" s="64"/>
       <c r="B27" s="6" t="s">
         <v>18</v>
       </c>
@@ -1530,8 +1533,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="36" t="s">
+      <c r="A28" s="64"/>
+      <c r="B28" s="35" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -1542,8 +1545,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="37" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -1554,13 +1557,13 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="6"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="54"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="16" t="s">
         <v>47</v>
       </c>
@@ -1572,8 +1575,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="54"/>
-      <c r="B32" s="38" t="s">
+      <c r="A32" s="64"/>
+      <c r="B32" s="37" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -1584,7 +1587,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="54"/>
+      <c r="A33" s="64"/>
       <c r="B33" s="7" t="s">
         <v>50</v>
       </c>
@@ -1596,7 +1599,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="54"/>
+      <c r="A34" s="64"/>
       <c r="B34" s="7" t="s">
         <v>51</v>
       </c>
@@ -1608,7 +1611,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="54"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="7" t="s">
         <v>52</v>
       </c>
@@ -1620,13 +1623,13 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="54"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="6"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="54"/>
+      <c r="A37" s="64"/>
       <c r="B37" s="31" t="s">
         <v>35</v>
       </c>
@@ -1638,7 +1641,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="54"/>
+      <c r="A38" s="64"/>
       <c r="B38" s="31" t="s">
         <v>39</v>
       </c>
@@ -1650,7 +1653,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="54"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="5" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1661,7 @@
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="54"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="6" t="s">
         <v>53</v>
       </c>
@@ -1670,7 +1673,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="55"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="10" t="s">
         <v>54</v>
       </c>
@@ -1682,7 +1685,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="66" t="s">
         <v>23</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -1696,7 +1699,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="48"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="14" t="s">
         <v>56</v>
       </c>
@@ -1717,12 +1720,12 @@
       <c r="C44" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="63" t="s">
+      <c r="D44" s="41" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="66" t="s">
         <v>25</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -1736,7 +1739,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
+      <c r="A46" s="67"/>
       <c r="B46" s="28" t="s">
         <v>59</v>
       </c>
@@ -1748,62 +1751,66 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="51" t="s">
         <v>27</v>
       </c>
       <c r="B47" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="64" t="s">
+      <c r="C47" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="42"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="65" t="s">
+      <c r="C48" s="61"/>
+      <c r="D48" s="43" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="52"/>
-      <c r="D49" s="66" t="s">
+      <c r="C49" s="62"/>
+      <c r="D49" s="44" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="33" t="s">
         <v>38</v>
       </c>
       <c r="B50" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C50" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="67" t="s">
+      <c r="C50" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="45" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="72" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="68"/>
+      <c r="B51" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="71" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1861,97 +1868,97 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="60"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="23"/>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
+      <c r="A5" s="58"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="60"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
+      <c r="A8" s="64"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="60"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
+      <c r="A12" s="64"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
+      <c r="A13" s="64"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="54"/>
+      <c r="A14" s="64"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="60"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
+      <c r="A18" s="64"/>
       <c r="B18" s="23"/>
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
     </row>
